--- a/Inventory/Templates/OneColumnTemplate.xlsx
+++ b/Inventory/Templates/OneColumnTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tetz2\source\repos\Inventory\Inventory\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tetz2\source\repos\Tetz228\Inventory\Inventory\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0A30F4-5FBA-409F-AF25-EEFCC0F6BC00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2548619-8BCA-416A-8815-31DCEF620CFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6225" yWindow="7020" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="765" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -158,27 +158,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,55 +469,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCellId="1" sqref="A2 A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A2">

--- a/Inventory/Templates/OneColumnTemplate.xlsx
+++ b/Inventory/Templates/OneColumnTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tetz2\source\repos\Tetz228\Inventory\Inventory\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2548619-8BCA-416A-8815-31DCEF620CFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDE2762-2711-4983-8F11-86D6E2FAC2B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="765" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,10 +35,10 @@
     <t>Наименование</t>
   </si>
   <si>
-    <t>{{Name}}</t>
+    <t>{{TableName}}</t>
   </si>
   <si>
-    <t>{{TableName}}</t>
+    <t>{{Name}}</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCellId="1" sqref="A2 A1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +483,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -497,7 +497,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
